--- a/H_FamilyList_FP/hpjt구조.xlsx
+++ b/H_FamilyList_FP/hpjt구조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\H_FamilyList_FP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\H_FamilyList_FP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{413DD224-A8A6-47EE-8CE9-A523A0E72E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73F1D1-A9C2-4C60-A608-EA2F35099B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CC844A89-6760-472F-8F40-70892C1E0CA1}"/>
+    <workbookView xWindow="11355" yWindow="3540" windowWidth="19170" windowHeight="11250" activeTab="1" xr2:uid="{CC844A89-6760-472F-8F40-70892C1E0CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="alt1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>building_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,7 +206,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**프로젝트 인포 탭의 add 함수 수정 필요</t>
+    <t>**프로젝트 인포 탭의 add 함수 수정 필요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bd1, bd2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,16 +763,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D370D3-BA02-4DD6-89CC-F9C8E2E40214}">
-  <dimension ref="B3:G31"/>
+  <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -815,113 +828,134 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
     </row>
